--- a/03.crawler/05.Standard/file/1.part_number/crawler_1.xlsx
+++ b/03.crawler/05.Standard/file/1.part_number/crawler_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23520" windowHeight="14040"/>
+    <workbookView windowWidth="25900" windowHeight="14600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,61 +41,61 @@
     <t>CCR-3</t>
   </si>
   <si>
-    <t>https://www.standardbrand.com/en/ecatalog?part=CCR-3&amp;type=p&amp;search=s</t>
+    <t>https://www.standardbrand.com/en/ecatalog?part=CCR3&amp;type=p&amp;search=s</t>
   </si>
   <si>
     <t>CCR-6</t>
   </si>
   <si>
-    <t>https://www.standardbrand.com/en/ecatalog?part=CCR-6&amp;type=p&amp;search=s</t>
+    <t>https://www.standardbrand.com/en/ecatalog?part=CCR6&amp;type=p&amp;search=s</t>
   </si>
   <si>
     <t>CCR-7</t>
   </si>
   <si>
-    <t>https://www.standardbrand.com/en/ecatalog?part=CCR-7&amp;type=p&amp;search=s</t>
+    <t>https://www.standardbrand.com/en/ecatalog?part=CCR7&amp;type=p&amp;search=s</t>
   </si>
   <si>
     <t>DS-2282</t>
   </si>
   <si>
-    <t>https://www.standardbrand.com/en/ecatalog?part=DS-2282&amp;type=p&amp;search=s</t>
+    <t>https://www.standardbrand.com/en/ecatalog?part=DS2282&amp;type=p&amp;search=s</t>
   </si>
   <si>
     <t>LS-312</t>
   </si>
   <si>
-    <t>https://www.standardbrand.com/en/ecatalog?part=LS-312&amp;type=p&amp;search=s</t>
+    <t>https://www.standardbrand.com/en/ecatalog?part=LS312&amp;type=p&amp;search=s</t>
   </si>
   <si>
     <t>NS-35</t>
   </si>
   <si>
-    <t>https://www.standardbrand.com/en/ecatalog?part=NS-35&amp;type=p&amp;search=s</t>
+    <t>https://www.standardbrand.com/en/ecatalog?part=NS35&amp;type=p&amp;search=s</t>
   </si>
   <si>
     <t>NS-56</t>
   </si>
   <si>
-    <t>https://www.standardbrand.com/en/ecatalog?part=NS-56&amp;type=p&amp;search=s</t>
+    <t>https://www.standardbrand.com/en/ecatalog?part=NS56&amp;type=p&amp;search=s</t>
   </si>
   <si>
     <t>NS-63</t>
   </si>
   <si>
-    <t>https://www.standardbrand.com/en/ecatalog?part=NS-63&amp;type=p&amp;search=s</t>
+    <t>https://www.standardbrand.com/en/ecatalog?part=NS63&amp;type=p&amp;search=s</t>
   </si>
   <si>
     <t>NS-68</t>
   </si>
   <si>
-    <t>https://www.standardbrand.com/en/ecatalog?part=NS-68&amp;type=p&amp;search=s</t>
+    <t>https://www.standardbrand.com/en/ecatalog?part=NS68&amp;type=p&amp;search=s</t>
   </si>
   <si>
     <t>NS-69</t>
   </si>
   <si>
-    <t>https://www.standardbrand.com/en/ecatalog?part=NS-69&amp;type=p&amp;search=s</t>
+    <t>https://www.standardbrand.com/en/ecatalog?part=NS69&amp;type=p&amp;search=s</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1092,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="$A12:$XFD117"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
